--- a/Pandas/Datasets/products.xlsx
+++ b/Pandas/Datasets/products.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analysis\Pandas\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7999B1AC-DEB2-4CEB-9C2A-E798534D2378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A0EF538-9503-49DF-840E-3D2F2C98DAA8}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,16 +577,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A3F3F8-45FA-46EA-91D0-952976A246CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J31"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
@@ -651,7 +654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
@@ -683,7 +686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
@@ -715,7 +718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
@@ -747,7 +750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1005</v>
       </c>
@@ -779,7 +782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1006</v>
       </c>
@@ -811,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1007</v>
       </c>
@@ -843,7 +846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1008</v>
       </c>
@@ -875,7 +878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1009</v>
       </c>
@@ -907,7 +910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1010</v>
       </c>
@@ -939,7 +942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1011</v>
       </c>
@@ -971,7 +974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1012</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1013</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1014</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1015</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1016</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1017</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1018</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1019</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1020</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1021</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1022</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1023</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1024</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1025</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1026</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1027</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1028</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1029</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1030</v>
       </c>
